--- a/project/web/excel/train_temple.xlsx
+++ b/project/web/excel/train_temple.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2867A546-23D2-41A9-AF50-E0A5FBC58816}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86DE24A1-442C-4F8B-B006-F921FAD0B4C8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,56 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结束时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>解决方案人员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他人员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参与人数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -442,7 +393,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="L1" sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -462,42 +413,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="A1" s="5"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/project/web/excel/train_temple.xlsx
+++ b/project/web/excel/train_temple.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86DE24A1-442C-4F8B-B006-F921FAD0B4C8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DB2B848-D4B9-432F-A4D5-8456678D837A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,10 +17,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -389,11 +385,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L1" sqref="A1:L1"/>
+      <selection pane="bottomLeft" activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -412,7 +408,7 @@
     <col min="13" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -425,6 +421,7 @@
       <c r="J1" s="6"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
